--- a/data.xlsx
+++ b/data.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{351831BE-3E72-4606-A52F-CC8B6EBE72F9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7845" windowHeight="3060" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data1" sheetId="1" r:id="rId1"/>
-    <sheet name="Data4" sheetId="4" r:id="rId2"/>
-    <sheet name="Data3" sheetId="3" r:id="rId3"/>
+    <sheet name="Config" sheetId="4" r:id="rId2"/>
+    <sheet name="Register" sheetId="3" r:id="rId3"/>
     <sheet name="Data2" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,35 +23,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Nikul</t>
-  </si>
-  <si>
-    <t>Alok</t>
-  </si>
-  <si>
-    <t>Jugraj</t>
-  </si>
-  <si>
     <t>UserName</t>
   </si>
   <si>
-    <t>test34</t>
-  </si>
-  <si>
     <t>Password</t>
   </si>
   <si>
-    <t>dsfsadgfsa</t>
-  </si>
-  <si>
-    <t>Paul</t>
-  </si>
-  <si>
     <t>Email Error</t>
   </si>
   <si>
@@ -63,24 +46,68 @@
     <t>Sorry, Google doesn't recognize that email.</t>
   </si>
   <si>
-    <t>Selenium</t>
-  </si>
-  <si>
-    <t>Automation</t>
-  </si>
-  <si>
-    <t>Testing</t>
-  </si>
-  <si>
-    <t>test</t>
+    <t>Hemang</t>
+  </si>
+  <si>
+    <t>Haha</t>
+  </si>
+  <si>
+    <t>Hemspatel203</t>
+  </si>
+  <si>
+    <t>browser</t>
+  </si>
+  <si>
+    <t>firefox</t>
+  </si>
+  <si>
+    <t>sitename</t>
+  </si>
+  <si>
+    <t>http://www.way2automation.com/demo.html</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>hems</t>
+  </si>
+  <si>
+    <t>abc@gmail.com</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Toronto</t>
+  </si>
+  <si>
+    <t>Hems</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,43 +115,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="55"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="55"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="55"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="55"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="55"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -136,10 +141,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -147,20 +153,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -473,87 +472,74 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.694921875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="12.26953125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="20.1796875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="39.81640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="26.81640625" collapsed="true"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="39.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="26.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="7" t="s">
-        <v>15</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -562,24 +548,98 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2">
+        <v>8989898989</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{3CCFCBBF-0842-4990-82E4-F2F092DF31E9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -592,7 +652,7 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
